--- a/datosEmbalses/datosCaracteristicas/embalses_caracteristicas.xlsx
+++ b/datosEmbalses/datosCaracteristicas/embalses_caracteristicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Desktop\embalseGestion\datosEmbalses\datosCaracteristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA4721C-6285-4F0F-AEF6-42588C62C40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CB843-670D-4DD1-AB1D-20DE9E522940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8308E80F-81F1-46EA-A299-27EA7E2E5EA4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8308E80F-81F1-46EA-A299-27EA7E2E5EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>Aldeadavila</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>DESALOJO PRESA SEGUNDO</t>
+  </si>
+  <si>
+    <t>414.000 m3 por hora</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +844,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -893,8 +896,8 @@
       <c r="G2" s="1">
         <v>-99</v>
       </c>
-      <c r="H2" s="1">
-        <v>115</v>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="1">
         <v>6</v>

--- a/datosEmbalses/datosCaracteristicas/embalses_caracteristicas.xlsx
+++ b/datosEmbalses/datosCaracteristicas/embalses_caracteristicas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Desktop\embalseGestion\datosEmbalses\datosCaracteristicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\CDS_embalse\embalseGestion\datosEmbalses\datosCaracteristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CB843-670D-4DD1-AB1D-20DE9E522940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF584C5-C105-4A52-8235-9882AED0103A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8308E80F-81F1-46EA-A299-27EA7E2E5EA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8308E80F-81F1-46EA-A299-27EA7E2E5EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -563,23 +563,23 @@
       <selection activeCell="B5" sqref="B5:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="60" max="60" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" customWidth="1"/>
+    <col min="60" max="60" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:71" x14ac:dyDescent="0.3">
       <c r="BS4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:71" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:71" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -599,7 +599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="7" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -645,12 +645,12 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="8" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -670,7 +670,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="10" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="11" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -716,42 +716,42 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="12" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
@@ -775,7 +775,7 @@
       </c>
       <c r="BP23" s="2"/>
     </row>
-    <row r="24" spans="2:68" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:68" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="25" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -831,20 +831,20 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -874,7 +874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -929,7 +929,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -961,7 +961,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -984,7 +984,7 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>

--- a/datosEmbalses/datosCaracteristicas/embalses_caracteristicas.xlsx
+++ b/datosEmbalses/datosCaracteristicas/embalses_caracteristicas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\CDS_embalse\embalseGestion\datosEmbalses\datosCaracteristicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torre\Desktop\embalseGestion\datosEmbalses\datosCaracteristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF584C5-C105-4A52-8235-9882AED0103A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBFF79-06C9-43FD-8F72-97DB5B22F27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8308E80F-81F1-46EA-A299-27EA7E2E5EA4}"/>
+    <workbookView xWindow="1260" yWindow="4185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{8308E80F-81F1-46EA-A299-27EA7E2E5EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -563,23 +563,23 @@
       <selection activeCell="B5" sqref="B5:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.44140625" customWidth="1"/>
-    <col min="60" max="60" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="60" max="60" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:71" x14ac:dyDescent="0.25">
       <c r="BS4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:71" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:71" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -599,7 +599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="7" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -645,12 +645,12 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="8" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -670,7 +670,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="10" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="11" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -716,42 +716,42 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="12" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:71" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:71" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:68" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:68" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
@@ -775,7 +775,7 @@
       </c>
       <c r="BP23" s="2"/>
     </row>
-    <row r="24" spans="2:68" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:68" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="25" spans="2:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -828,23 +828,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A993D14C-9214-4879-B2CF-698F0ED1AC27}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -874,7 +874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -929,7 +929,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -961,7 +961,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -984,7 +984,7 @@
         <v>169.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1107,6 +1107,14 @@
       </c>
       <c r="H15" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
